--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1126392.138116506</v>
+        <v>1125959.75701493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217325.2790073357</v>
+        <v>217325.279007336</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>269.9496314033479</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>85.98254106562993</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>48.85604369907839</v>
       </c>
       <c r="W3" t="n">
-        <v>106.812427126709</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>125.2040305762913</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100.6828013723499</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>63.71733562992253</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>197.9004526015458</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -990,10 +990,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.7522919572953</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>156.3065588186835</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>57.3740704297615</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>50.25629143641266</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>214.8295919662174</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>83.70908051829039</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1215,7 +1215,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.06871127834132536</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10.09209246479641</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1278,7 +1278,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,10 +1291,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>19.32010918448169</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.92693039951122</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.0889220286995</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>287.1002389863813</v>
       </c>
       <c r="D11" t="n">
-        <v>278.0815430309092</v>
+        <v>278.0815430309093</v>
       </c>
       <c r="E11" t="n">
         <v>299.8236806008148</v>
       </c>
       <c r="F11" t="n">
-        <v>318.9954966887919</v>
+        <v>318.995496688792</v>
       </c>
       <c r="G11" t="n">
         <v>320.9287645862145</v>
       </c>
       <c r="H11" t="n">
-        <v>238.4788795645244</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>80.07484470915253</v>
+        <v>76.70731233297663</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>94.34250352181016</v>
+        <v>94.3425035218102</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.1011747121595</v>
       </c>
       <c r="U11" t="n">
         <v>161.3223008290065</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>242.5952992688787</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.8953987468356</v>
       </c>
       <c r="X11" t="n">
-        <v>100.6565387584741</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>84.37298759326521</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>90.70563290339665</v>
       </c>
       <c r="C13" t="n">
-        <v>76.90562774879709</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.52699214637552</v>
       </c>
       <c r="E13" t="n">
-        <v>59.47474200215493</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.94166633034123</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.76473667437949</v>
+        <v>66.76473667437953</v>
       </c>
       <c r="I13" t="n">
-        <v>51.74683185920884</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.77278069588844</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>120.5584828762099</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.8329815583385</v>
+        <v>107.2741055262213</v>
       </c>
       <c r="U13" t="n">
-        <v>193.3041550216517</v>
+        <v>193.3041550216518</v>
       </c>
       <c r="V13" t="n">
-        <v>167.1137693030222</v>
+        <v>167.1137693030223</v>
       </c>
       <c r="W13" t="n">
         <v>192.2806553736355</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.9257573694386</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>128.8006251255063</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>293.6545267831697</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>281.6658437408514</v>
       </c>
       <c r="D14" t="n">
-        <v>171.7899360864933</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>294.3892853552849</v>
       </c>
       <c r="F14" t="n">
         <v>313.5611014432621</v>
@@ -1622,10 +1622,10 @@
         <v>315.4943693406846</v>
       </c>
       <c r="H14" t="n">
-        <v>233.0444843189945</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>74.64044946362266</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.90810827628029</v>
+        <v>49.01433086349412</v>
       </c>
       <c r="T14" t="n">
         <v>125.6667794666296</v>
@@ -1664,10 +1664,10 @@
         <v>155.8879055834766</v>
       </c>
       <c r="V14" t="n">
-        <v>237.1609040233488</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>262.4610035013057</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>281.7612617340523</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.259757067945</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1740,7 +1740,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921692</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>62.05157962784904</v>
       </c>
       <c r="C16" t="n">
         <v>71.47123250326722</v>
@@ -1771,7 +1771,7 @@
         <v>55.09259690084561</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>54.04034675662506</v>
       </c>
       <c r="F16" t="n">
         <v>54.50727108481136</v>
@@ -1813,10 +1813,10 @@
         <v>51.57798623209628</v>
       </c>
       <c r="S16" t="n">
-        <v>115.12408763068</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9678387537934259</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>187.8697597761218</v>
@@ -1904,7 +1904,7 @@
         <v>167.4804162205611</v>
       </c>
       <c r="W17" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985184</v>
       </c>
       <c r="X17" t="n">
         <v>212.0807739312646</v>
@@ -1983,13 +1983,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>224.3372187935193</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.030621801413</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2144,7 +2144,7 @@
         <v>192.780515698518</v>
       </c>
       <c r="X20" t="n">
-        <v>212.0807739312646</v>
+        <v>212.080773931265</v>
       </c>
       <c r="Y20" t="n">
         <v>223.4773717274634</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5461750406456</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2397,7 +2397,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>145.5211447459502</v>
+        <v>145.5211447459511</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -2555,7 +2555,7 @@
         <v>261.3037924784242</v>
       </c>
       <c r="C26" t="n">
-        <v>249.315109436106</v>
+        <v>249.3151094361059</v>
       </c>
       <c r="D26" t="n">
         <v>240.2964134806339</v>
@@ -2570,10 +2570,10 @@
         <v>283.1436350359392</v>
       </c>
       <c r="H26" t="n">
-        <v>200.6937500142491</v>
+        <v>200.693750014249</v>
       </c>
       <c r="I26" t="n">
-        <v>42.28971515887721</v>
+        <v>42.28971515887719</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.55737397153484</v>
+        <v>56.55737397153482</v>
       </c>
       <c r="T26" t="n">
-        <v>93.3160451618842</v>
+        <v>93.31604516188418</v>
       </c>
       <c r="U26" t="n">
-        <v>123.5371712787312</v>
+        <v>123.5371712787311</v>
       </c>
       <c r="V26" t="n">
         <v>204.8101697186033</v>
@@ -2618,7 +2618,7 @@
         <v>230.1102691965602</v>
       </c>
       <c r="X26" t="n">
-        <v>249.4105274293069</v>
+        <v>249.4105274293068</v>
       </c>
       <c r="Y26" t="n">
         <v>260.8071252255056</v>
@@ -2646,7 +2646,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914449</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
@@ -2700,7 +2700,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.0306218014133</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.92050335312129</v>
+        <v>52.92050335312126</v>
       </c>
       <c r="C28" t="n">
-        <v>39.12049819852177</v>
+        <v>39.12049819852174</v>
       </c>
       <c r="D28" t="n">
-        <v>22.74186259610016</v>
+        <v>22.74186259610013</v>
       </c>
       <c r="E28" t="n">
-        <v>21.68961245187961</v>
+        <v>21.68961245187958</v>
       </c>
       <c r="F28" t="n">
-        <v>22.15653678006592</v>
+        <v>22.15653678006589</v>
       </c>
       <c r="G28" t="n">
-        <v>38.43123950141376</v>
+        <v>38.43123950141373</v>
       </c>
       <c r="H28" t="n">
-        <v>28.97960712410418</v>
+        <v>28.97960712410415</v>
       </c>
       <c r="I28" t="n">
-        <v>13.96170230893352</v>
+        <v>13.9617023089335</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.22725192735084</v>
+        <v>19.22725192735081</v>
       </c>
       <c r="S28" t="n">
-        <v>82.77335332593458</v>
+        <v>82.77335332593455</v>
       </c>
       <c r="T28" t="n">
         <v>102.0478520080632</v>
@@ -2776,10 +2776,10 @@
         <v>154.4955258233601</v>
       </c>
       <c r="X28" t="n">
-        <v>100.1406278191633</v>
+        <v>100.1406278191632</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01549557523094</v>
+        <v>91.01549557523091</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.738187723954</v>
+        <v>266.7381877239541</v>
       </c>
       <c r="C29" t="n">
         <v>254.7495046816358</v>
       </c>
       <c r="D29" t="n">
-        <v>245.7308087261637</v>
+        <v>245.7308087261638</v>
       </c>
       <c r="E29" t="n">
         <v>267.4729462960693</v>
       </c>
       <c r="F29" t="n">
-        <v>286.6447623840464</v>
+        <v>286.6447623840465</v>
       </c>
       <c r="G29" t="n">
-        <v>288.578030281469</v>
+        <v>269.053870815584</v>
       </c>
       <c r="H29" t="n">
         <v>206.1281452597789</v>
       </c>
       <c r="I29" t="n">
-        <v>47.72411040440703</v>
+        <v>47.72411040440709</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.99176921706466</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>17.23451172446582</v>
+        <v>98.75044040741408</v>
       </c>
       <c r="U29" t="n">
         <v>128.971566524261</v>
       </c>
       <c r="V29" t="n">
-        <v>210.2445649641331</v>
+        <v>210.2445649641332</v>
       </c>
       <c r="W29" t="n">
-        <v>235.54466444209</v>
+        <v>235.5446644420901</v>
       </c>
       <c r="X29" t="n">
         <v>254.8449226748367</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.2415204710354</v>
+        <v>266.2415204710355</v>
       </c>
     </row>
     <row r="30">
@@ -2928,10 +2928,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W30" t="n">
-        <v>224.3372187935196</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.3548985986511</v>
+        <v>58.35489859865116</v>
       </c>
       <c r="C31" t="n">
-        <v>44.55489344405159</v>
+        <v>44.55489344405164</v>
       </c>
       <c r="D31" t="n">
-        <v>28.17625784162998</v>
+        <v>28.17625784163003</v>
       </c>
       <c r="E31" t="n">
-        <v>27.12400769740943</v>
+        <v>27.12400769740948</v>
       </c>
       <c r="F31" t="n">
-        <v>27.59093202559573</v>
+        <v>27.59093202559579</v>
       </c>
       <c r="G31" t="n">
-        <v>43.86563474694357</v>
+        <v>43.86563474694363</v>
       </c>
       <c r="H31" t="n">
-        <v>34.41400236963399</v>
+        <v>34.41400236963405</v>
       </c>
       <c r="I31" t="n">
-        <v>19.39609755446334</v>
+        <v>19.3960975544634</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.66164717288065</v>
+        <v>24.66164717288071</v>
       </c>
       <c r="S31" t="n">
-        <v>88.20774857146439</v>
+        <v>88.20774857146445</v>
       </c>
       <c r="T31" t="n">
-        <v>107.482247253593</v>
+        <v>107.4822472535931</v>
       </c>
       <c r="U31" t="n">
         <v>160.9534207169062</v>
@@ -3010,13 +3010,13 @@
         <v>134.7630349982767</v>
       </c>
       <c r="W31" t="n">
-        <v>159.9299210688899</v>
+        <v>159.92992106889</v>
       </c>
       <c r="X31" t="n">
         <v>105.5750230646931</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.44989082076076</v>
+        <v>96.44989082076081</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.3271756360891</v>
+        <v>253.327175636089</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382988</v>
+        <v>232.3197966382987</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961815</v>
+        <v>273.2337502961814</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654207</v>
+        <v>34.31309831654201</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.5807571291997</v>
+        <v>48.58075712919964</v>
       </c>
       <c r="T32" t="n">
-        <v>85.33942831954906</v>
+        <v>85.339428319549</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762682</v>
+        <v>196.8335528762681</v>
       </c>
       <c r="W32" t="n">
-        <v>222.1336523542251</v>
+        <v>222.133652354225</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869717</v>
+        <v>241.4339105869716</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831705</v>
+        <v>252.8305083831704</v>
       </c>
     </row>
     <row r="33">
@@ -3165,13 +3165,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>181.3723269554797</v>
       </c>
       <c r="Y33" t="n">
         <v>190.5961130869169</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078614</v>
+        <v>44.94388651078609</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618663</v>
+        <v>31.14388135618657</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376502</v>
+        <v>14.76524575376496</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954446</v>
+        <v>13.71299560954441</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773077</v>
+        <v>14.17991993773072</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907861</v>
+        <v>30.45462265907855</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176903</v>
+        <v>21.00299028176897</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598377</v>
+        <v>5.985085466598321</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501569</v>
+        <v>11.25063508501563</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359943</v>
+        <v>74.79673648359937</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572807</v>
+        <v>94.07123516572801</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.518908981025</v>
+        <v>146.5189089810249</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682811</v>
+        <v>92.16401097682805</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.0388787328958</v>
+        <v>83.03887873289574</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -3411,7 +3411,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.0306218014135</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -3588,10 +3588,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F39" t="n">
-        <v>118.7813687841207</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -3825,7 +3825,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>130.9922385581942</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
@@ -3885,7 +3885,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014135</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.2074177806891</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205611</v>
@@ -4040,7 +4040,7 @@
         <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.080773931265</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1493.206661747518</v>
+        <v>471.2936782449368</v>
       </c>
       <c r="C2" t="n">
-        <v>1111.272903080325</v>
+        <v>471.2936782449368</v>
       </c>
       <c r="D2" t="n">
-        <v>738.4489383075484</v>
+        <v>471.2936782449368</v>
       </c>
       <c r="E2" t="n">
-        <v>465.7725429506313</v>
+        <v>471.2936782449368</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6617563012057</v>
+        <v>384.4426266634924</v>
       </c>
       <c r="G2" t="n">
-        <v>39.55776975539366</v>
+        <v>372.3790441580844</v>
       </c>
       <c r="H2" t="n">
         <v>39.55776975539366</v>
@@ -4334,10 +4334,10 @@
         <v>351.6966860729821</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5820591579284</v>
+        <v>578.7242282134555</v>
       </c>
       <c r="M2" t="n">
-        <v>1092.821225411016</v>
+        <v>971.9633944665434</v>
       </c>
       <c r="N2" t="n">
         <v>1350.294753154259</v>
@@ -4352,28 +4352,28 @@
         <v>1977.888487769683</v>
       </c>
       <c r="R2" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="S2" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="T2" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="U2" t="n">
-        <v>1887.250201265537</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="V2" t="n">
-        <v>1887.250201265537</v>
+        <v>1640.909213665625</v>
       </c>
       <c r="W2" t="n">
-        <v>1887.250201265537</v>
+        <v>1640.909213665625</v>
       </c>
       <c r="X2" t="n">
-        <v>1887.250201265537</v>
+        <v>1258.879073187118</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.250201265537</v>
+        <v>865.3372177629559</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>329.3024688486885</v>
       </c>
       <c r="L3" t="n">
-        <v>329.3024688486885</v>
+        <v>695.1243140188042</v>
       </c>
       <c r="M3" t="n">
-        <v>814.3358223589149</v>
+        <v>1180.157667529031</v>
       </c>
       <c r="N3" t="n">
-        <v>1303.863223081912</v>
+        <v>1180.157667529031</v>
       </c>
       <c r="O3" t="n">
-        <v>1696.063173866062</v>
+        <v>1518.020938708392</v>
       </c>
       <c r="P3" t="n">
         <v>1820.116857984089</v>
@@ -4431,19 +4431,19 @@
         <v>1977.888487769683</v>
       </c>
       <c r="R3" t="n">
-        <v>1918.104218864629</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="S3" t="n">
-        <v>1765.304731877369</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="T3" t="n">
-        <v>1576.619628043354</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="U3" t="n">
-        <v>1576.619628043354</v>
+        <v>1759.393695367993</v>
       </c>
       <c r="V3" t="n">
-        <v>1576.619628043354</v>
+        <v>1710.044156278015</v>
       </c>
       <c r="W3" t="n">
         <v>1468.728287511325</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.0264875092233</v>
+        <v>285.4606135187252</v>
       </c>
       <c r="C4" t="n">
-        <v>39.55776975539366</v>
+        <v>285.4606135187252</v>
       </c>
       <c r="D4" t="n">
-        <v>39.55776975539366</v>
+        <v>285.4606135187252</v>
       </c>
       <c r="E4" t="n">
-        <v>39.55776975539366</v>
+        <v>285.4606135187252</v>
       </c>
       <c r="F4" t="n">
-        <v>39.55776975539366</v>
+        <v>183.7608141527152</v>
       </c>
       <c r="G4" t="n">
-        <v>39.55776975539366</v>
+        <v>183.7608141527152</v>
       </c>
       <c r="H4" t="n">
-        <v>39.55776975539366</v>
+        <v>183.7608141527152</v>
       </c>
       <c r="I4" t="n">
         <v>39.55776975539366</v>
@@ -4525,13 +4525,13 @@
         <v>571.6170150013261</v>
       </c>
       <c r="W4" t="n">
-        <v>571.6170150013261</v>
+        <v>285.4606135187252</v>
       </c>
       <c r="X4" t="n">
-        <v>571.6170150013261</v>
+        <v>285.4606135187252</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.5818561936031</v>
+        <v>285.4606135187252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.959611965658</v>
+        <v>1415.454110555016</v>
       </c>
       <c r="C5" t="n">
-        <v>1264.598666884928</v>
+        <v>1415.454110555016</v>
       </c>
       <c r="D5" t="n">
-        <v>1264.598666884928</v>
+        <v>1042.630145782239</v>
       </c>
       <c r="E5" t="n">
-        <v>869.8129469910353</v>
+        <v>1042.630145782239</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6617563012057</v>
+        <v>628.4789550924097</v>
       </c>
       <c r="G5" t="n">
-        <v>39.55776975539366</v>
+        <v>212.3749685465976</v>
       </c>
       <c r="H5" t="n">
-        <v>39.55776975539366</v>
+        <v>212.3749685465976</v>
       </c>
       <c r="I5" t="n">
         <v>39.55776975539366</v>
@@ -4574,7 +4574,7 @@
         <v>699.5820591579284</v>
       </c>
       <c r="M5" t="n">
-        <v>971.9633944665434</v>
+        <v>1092.821225411016</v>
       </c>
       <c r="N5" t="n">
         <v>1350.294753154259</v>
@@ -4598,19 +4598,19 @@
         <v>1977.888487769683</v>
       </c>
       <c r="U5" t="n">
-        <v>1723.003151483677</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="V5" t="n">
-        <v>1723.003151483677</v>
+        <v>1977.888487769683</v>
       </c>
       <c r="W5" t="n">
-        <v>1723.003151483677</v>
+        <v>1615.353557627284</v>
       </c>
       <c r="X5" t="n">
-        <v>1723.003151483677</v>
+        <v>1615.353557627284</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.003151483677</v>
+        <v>1415.454110555016</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.5503874941967</v>
+        <v>757.1668574983925</v>
       </c>
       <c r="C6" t="n">
-        <v>588.8467147351514</v>
+        <v>757.1668574983925</v>
       </c>
       <c r="D6" t="n">
-        <v>450.0080777253635</v>
+        <v>618.3282204886045</v>
       </c>
       <c r="E6" t="n">
-        <v>302.9800677822348</v>
+        <v>471.3002105454757</v>
       </c>
       <c r="F6" t="n">
-        <v>168.2862697321091</v>
+        <v>336.60641249535</v>
       </c>
       <c r="G6" t="n">
-        <v>39.55776975539366</v>
+        <v>207.8779125186346</v>
       </c>
       <c r="H6" t="n">
-        <v>39.55776975539366</v>
+        <v>107.9400550653327</v>
       </c>
       <c r="I6" t="n">
         <v>39.55776975539366</v>
       </c>
       <c r="J6" t="n">
-        <v>99.81191628849982</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="K6" t="n">
-        <v>99.81191628849982</v>
+        <v>269.0483223155823</v>
       </c>
       <c r="L6" t="n">
-        <v>465.6337614586155</v>
+        <v>269.0483223155823</v>
       </c>
       <c r="M6" t="n">
-        <v>950.6671149688419</v>
+        <v>754.0816758258088</v>
       </c>
       <c r="N6" t="n">
-        <v>1440.194515691839</v>
+        <v>1243.609076548805</v>
       </c>
       <c r="O6" t="n">
-        <v>1820.116857984089</v>
+        <v>1518.020938708392</v>
       </c>
       <c r="P6" t="n">
         <v>1820.116857984089</v>
@@ -4671,25 +4671,25 @@
         <v>1918.104218864629</v>
       </c>
       <c r="S6" t="n">
-        <v>1918.104218864629</v>
+        <v>1772.89988355423</v>
       </c>
       <c r="T6" t="n">
-        <v>1918.104218864629</v>
+        <v>1584.214779720215</v>
       </c>
       <c r="U6" t="n">
-        <v>1699.609426462939</v>
+        <v>1584.214779720215</v>
       </c>
       <c r="V6" t="n">
-        <v>1541.724013514774</v>
+        <v>1355.819157168549</v>
       </c>
       <c r="W6" t="n">
-        <v>1300.408144748084</v>
+        <v>1114.503288401859</v>
       </c>
       <c r="X6" t="n">
-        <v>1102.491156625879</v>
+        <v>916.5863002796534</v>
       </c>
       <c r="Y6" t="n">
-        <v>909.9698302754575</v>
+        <v>916.5863002796534</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="C7" t="n">
-        <v>150.3789390850721</v>
+        <v>402.0010454630063</v>
       </c>
       <c r="D7" t="n">
-        <v>150.3789390850721</v>
+        <v>344.0474389682977</v>
       </c>
       <c r="E7" t="n">
-        <v>150.3789390850721</v>
+        <v>192.0384247296166</v>
       </c>
       <c r="F7" t="n">
-        <v>150.3789390850721</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3789390850721</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3789390850721</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="I7" t="n">
-        <v>99.61500834122094</v>
+        <v>39.55776975539366</v>
       </c>
       <c r="J7" t="n">
         <v>39.55776975539366</v>
@@ -4744,31 +4744,31 @@
         <v>571.6170150013261</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.0796736550151</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="R7" t="n">
-        <v>383.5578922693933</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="S7" t="n">
-        <v>383.5578922693933</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="T7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="U7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="V7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="W7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="X7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.3789390850721</v>
+        <v>571.6170150013261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>685.2386171411009</v>
+        <v>891.4473929767458</v>
       </c>
       <c r="C8" t="n">
-        <v>685.2386171411009</v>
+        <v>509.5136343095532</v>
       </c>
       <c r="D8" t="n">
-        <v>685.2386171411009</v>
+        <v>136.6896695367768</v>
       </c>
       <c r="E8" t="n">
-        <v>468.2390292964369</v>
+        <v>136.6896695367768</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>126.5788828873511</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.345543186168</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W8" t="n">
-        <v>1460.81061304377</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="X8" t="n">
-        <v>1078.780472565263</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="Y8" t="n">
-        <v>685.2386171411009</v>
+        <v>891.4473929767458</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>714.1854996151742</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>552.4818268561289</v>
       </c>
       <c r="D9" t="n">
-        <v>552.412421524471</v>
+        <v>552.4818268561289</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>405.4538169130001</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>270.7600188628745</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>142.0315188861591</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>42.09366143285713</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>407.8461012713149</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2091.018772267238</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>2091.018772267238</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1872.523979865548</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1644.128357313882</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1402.812488547192</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1204.895500424986</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>1012.374174074565</v>
+        <v>873.6049423964351</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>456.8320888902033</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>456.8320888902033</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>456.8320888902033</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>456.8320888902033</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>456.8320888902033</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>456.8320888902033</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.5796247855791</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1893.003147257832</v>
+        <v>1648.713842267226</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.002905857447</v>
+        <v>1358.713600866841</v>
       </c>
       <c r="D11" t="n">
-        <v>1322.112458351478</v>
+        <v>1077.823153360872</v>
       </c>
       <c r="E11" t="n">
-        <v>1019.260255724392</v>
+        <v>774.9709507337859</v>
       </c>
       <c r="F11" t="n">
-        <v>697.04258230137</v>
+        <v>452.7532773107637</v>
       </c>
       <c r="G11" t="n">
-        <v>372.8721130223655</v>
+        <v>128.5828080317591</v>
       </c>
       <c r="H11" t="n">
-        <v>131.9843558864822</v>
+        <v>128.5828080317591</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>213.2032589080894</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K11" t="n">
-        <v>536.4025089730349</v>
+        <v>453.3436309528721</v>
       </c>
       <c r="L11" t="n">
-        <v>974.3919223311791</v>
+        <v>891.3330443110162</v>
       </c>
       <c r="M11" t="n">
-        <v>1457.735128857465</v>
+        <v>1284.572210564104</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.066487545181</v>
+        <v>1753.007609525018</v>
       </c>
       <c r="O11" t="n">
-        <v>2231.175112291213</v>
+        <v>2058.012193997852</v>
       </c>
       <c r="P11" t="n">
-        <v>2459.332008747266</v>
+        <v>2369.227968474068</v>
       </c>
       <c r="Q11" t="n">
         <v>2553.764262433803</v>
@@ -5069,22 +5069,22 @@
         <v>2459.738260001448</v>
       </c>
       <c r="T11" t="n">
-        <v>2459.738260001448</v>
+        <v>2327.312830999267</v>
       </c>
       <c r="U11" t="n">
-        <v>2296.78644098225</v>
+        <v>2164.361011980069</v>
       </c>
       <c r="V11" t="n">
-        <v>2296.78644098225</v>
+        <v>1919.315255142817</v>
       </c>
       <c r="W11" t="n">
-        <v>2296.78644098225</v>
+        <v>1648.713842267226</v>
       </c>
       <c r="X11" t="n">
-        <v>2195.113169509044</v>
+        <v>1648.713842267226</v>
       </c>
       <c r="Y11" t="n">
-        <v>2195.113169509044</v>
+        <v>1648.713842267226</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C12" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D12" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E12" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G12" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H12" t="n">
         <v>119.4829596720247</v>
@@ -5118,13 +5118,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,28 +5142,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X12" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y12" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.1144163973198</v>
+        <v>179.6781782214343</v>
       </c>
       <c r="C13" t="n">
-        <v>291.4319641258076</v>
+        <v>179.6781782214343</v>
       </c>
       <c r="D13" t="n">
-        <v>291.4319641258076</v>
+        <v>118.5398023160045</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3564671539339</v>
+        <v>118.5398023160045</v>
       </c>
       <c r="F13" t="n">
-        <v>170.8093294465185</v>
+        <v>118.5398023160045</v>
       </c>
       <c r="G13" t="n">
-        <v>170.8093294465185</v>
+        <v>118.5398023160045</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3702014925998</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>82.34261509731459</v>
+        <v>82.34261509731441</v>
       </c>
       <c r="K13" t="n">
-        <v>206.050843115156</v>
+        <v>206.0508431151558</v>
       </c>
       <c r="L13" t="n">
-        <v>396.7619627886136</v>
+        <v>396.7619627886133</v>
       </c>
       <c r="M13" t="n">
-        <v>604.8595091894133</v>
+        <v>604.8595091894131</v>
       </c>
       <c r="N13" t="n">
-        <v>813.3858912122116</v>
+        <v>813.3858912122114</v>
       </c>
       <c r="O13" t="n">
         <v>1001.953577981099</v>
@@ -5218,31 +5218,31 @@
         <v>1155.026101982435</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.359694002114</v>
+        <v>1207.359694002113</v>
       </c>
       <c r="R13" t="n">
-        <v>1190.417491278994</v>
+        <v>1207.359694002113</v>
       </c>
       <c r="S13" t="n">
-        <v>1068.641245949489</v>
+        <v>1207.359694002113</v>
       </c>
       <c r="T13" t="n">
-        <v>927.3958100319757</v>
+        <v>1099.002011652395</v>
       </c>
       <c r="U13" t="n">
-        <v>732.1390877878831</v>
+        <v>903.7452894083023</v>
       </c>
       <c r="V13" t="n">
-        <v>563.3373006131133</v>
+        <v>734.9435022335323</v>
       </c>
       <c r="W13" t="n">
-        <v>369.1144163973198</v>
+        <v>540.7206180177388</v>
       </c>
       <c r="X13" t="n">
-        <v>369.1144163973198</v>
+        <v>401.4016711799221</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.1144163973198</v>
+        <v>271.3000296390067</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1095.433897785757</v>
+        <v>1343.77850198199</v>
       </c>
       <c r="C14" t="n">
-        <v>1095.433897785757</v>
+        <v>1059.267548708403</v>
       </c>
       <c r="D14" t="n">
-        <v>921.9087098196021</v>
+        <v>1059.267548708403</v>
       </c>
       <c r="E14" t="n">
-        <v>921.9087098196021</v>
+        <v>761.9046342081153</v>
       </c>
       <c r="F14" t="n">
-        <v>605.1803245233777</v>
+        <v>445.176248911891</v>
       </c>
       <c r="G14" t="n">
-        <v>286.4991433711712</v>
+        <v>126.4950677596844</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208573</v>
+        <v>126.4950677596844</v>
       </c>
       <c r="I14" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>218.583310201164</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>458.7236822459467</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L14" t="n">
-        <v>862.7676768856829</v>
+        <v>806.6090553308929</v>
       </c>
       <c r="M14" t="n">
-        <v>1351.490934705043</v>
+        <v>1295.332313150253</v>
       </c>
       <c r="N14" t="n">
-        <v>1729.822293392759</v>
+        <v>1769.147763404242</v>
       </c>
       <c r="O14" t="n">
-        <v>2130.310969431865</v>
+        <v>2074.152347877075</v>
       </c>
       <c r="P14" t="n">
-        <v>2453.951957454191</v>
+        <v>2358.467865887919</v>
       </c>
       <c r="Q14" t="n">
         <v>2548.384211140728</v>
@@ -5303,25 +5303,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.227548128246</v>
+        <v>2505.524292989646</v>
       </c>
       <c r="T14" t="n">
-        <v>2338.291407252863</v>
+        <v>2378.588152114263</v>
       </c>
       <c r="U14" t="n">
-        <v>2180.828876360462</v>
+        <v>2221.125621221862</v>
       </c>
       <c r="V14" t="n">
-        <v>1941.272407650009</v>
+        <v>2221.125621221862</v>
       </c>
       <c r="W14" t="n">
-        <v>1676.160282901215</v>
+        <v>2221.125621221862</v>
       </c>
       <c r="X14" t="n">
-        <v>1391.552947816314</v>
+        <v>1936.518286136961</v>
       </c>
       <c r="Y14" t="n">
-        <v>1095.433897785757</v>
+        <v>1640.399236106404</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
         <v>706.6672186254962</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S15" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>280.7810148697658</v>
+        <v>335.3672237148416</v>
       </c>
       <c r="C16" t="n">
-        <v>208.5878507250514</v>
+        <v>263.1740595701272</v>
       </c>
       <c r="D16" t="n">
-        <v>152.9387629464194</v>
+        <v>207.5249717914953</v>
       </c>
       <c r="E16" t="n">
         <v>152.9387629464194</v>
@@ -5431,7 +5431,7 @@
         <v>97.88091336580187</v>
       </c>
       <c r="I16" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
         <v>87.72266639038902</v>
@@ -5446,7 +5446,7 @@
         <v>626.3797143617114</v>
       </c>
       <c r="N16" t="n">
-        <v>840.2861476775844</v>
+        <v>840.2861476775845</v>
       </c>
       <c r="O16" t="n">
         <v>1034.233885739547</v>
@@ -5461,25 +5461,25 @@
         <v>1198.301128354694</v>
       </c>
       <c r="S16" t="n">
-        <v>1082.014171151987</v>
+        <v>1198.301128354694</v>
       </c>
       <c r="T16" t="n">
-        <v>1081.036556249165</v>
+        <v>1198.301128354694</v>
       </c>
       <c r="U16" t="n">
-        <v>891.2691221318699</v>
+        <v>1008.533694237399</v>
       </c>
       <c r="V16" t="n">
-        <v>727.9566230838979</v>
+        <v>845.2211951894271</v>
       </c>
       <c r="W16" t="n">
-        <v>539.2230269949023</v>
+        <v>656.4875991004316</v>
       </c>
       <c r="X16" t="n">
-        <v>405.3933682838834</v>
+        <v>522.6579403894127</v>
       </c>
       <c r="Y16" t="n">
-        <v>280.7810148697658</v>
+        <v>398.0455869752952</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
         <v>942.744362147854</v>
@@ -5513,28 +5513,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>238.9081644362654</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0485364810481</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>991.4016840570267</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M17" t="n">
-        <v>1549.108624801147</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1927.439983488863</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O17" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P17" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q17" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104287</v>
@@ -5555,10 +5555,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5598,7 +5598,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5631,10 +5631,10 @@
         <v>1706.874443424602</v>
       </c>
       <c r="W18" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X18" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y18" t="n">
         <v>1089.832877645391</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670347</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="G19" t="n">
-        <v>51.10067436208574</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="H19" t="n">
-        <v>51.10067436208574</v>
+        <v>73.73844678336764</v>
       </c>
       <c r="I19" t="n">
-        <v>51.10067436208574</v>
+        <v>73.73844678336764</v>
       </c>
       <c r="J19" t="n">
-        <v>97.31943502373917</v>
+        <v>73.73844678336764</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>107.342634528011</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>207.9497139282706</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>325.9432200558723</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9465500458442</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5747,19 +5747,19 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J20" t="n">
-        <v>287.5669931259238</v>
+        <v>238.9081644362652</v>
       </c>
       <c r="K20" t="n">
-        <v>527.7073651707066</v>
+        <v>479.048536481048</v>
       </c>
       <c r="L20" t="n">
-        <v>875.5927382556529</v>
+        <v>826.9339095659942</v>
       </c>
       <c r="M20" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N20" t="n">
         <v>1762.97220899783</v>
@@ -5795,7 +5795,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L21" t="n">
         <v>706.6672186254962</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S21" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U21" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K22" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L22" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O22" t="n">
         <v>566.4101965415339</v>
@@ -5941,19 +5941,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X22" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C23" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478536</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614927</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
-        <v>469.4217245791953</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G23" t="n">
-        <v>221.1248745409155</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575744</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362653</v>
       </c>
       <c r="K23" t="n">
-        <v>527.7073651707065</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556526</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N23" t="n">
-        <v>1687.339019109511</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O23" t="n">
-        <v>1992.343603582345</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529431</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215968</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="S23" t="n">
-        <v>2535.611879242172</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.7008174040241</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
         <v>768.7097621050845</v>
@@ -6063,13 +6063,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6084,34 +6084,34 @@
         <v>2095.166169042996</v>
       </c>
       <c r="P24" t="n">
-        <v>2397.262088318692</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.033718104286</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
         <v>2495.249449199232</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211972</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377957</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976267</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424601</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657911</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535706</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185285</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208572</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I25" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J25" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K25" t="n">
-        <v>107.8392327839467</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L25" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>326.439818311808</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N25" t="n">
         <v>467.9465500458442</v>
@@ -6178,19 +6178,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W25" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X25" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>105.3604629676437</v>
       </c>
       <c r="I26" t="n">
-        <v>62.64357896877782</v>
+        <v>62.64357896877781</v>
       </c>
       <c r="J26" t="n">
-        <v>262.153441769554</v>
+        <v>213.732980131883</v>
       </c>
       <c r="K26" t="n">
-        <v>629.8051323423074</v>
+        <v>581.3846707046364</v>
       </c>
       <c r="L26" t="n">
-        <v>1105.201823955224</v>
+        <v>1056.781362317553</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.952308736283</v>
+        <v>1577.531847098612</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.794985951969</v>
+        <v>2083.374524314298</v>
       </c>
       <c r="O26" t="n">
-        <v>2515.890427315103</v>
+        <v>2515.890427315102</v>
       </c>
       <c r="P26" t="n">
-        <v>2871.558642299127</v>
+        <v>2871.558642299126</v>
       </c>
       <c r="Q26" t="n">
         <v>3093.502214513634</v>
@@ -6260,10 +6260,10 @@
         <v>2856.006634891264</v>
       </c>
       <c r="V26" t="n">
-        <v>2649.127675579544</v>
+        <v>2649.127675579543</v>
       </c>
       <c r="W26" t="n">
-        <v>2416.693060229483</v>
+        <v>2416.693060229482</v>
       </c>
       <c r="X26" t="n">
         <v>2164.763234543314</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9563394708219</v>
+        <v>927.2437220107174</v>
       </c>
       <c r="C27" t="n">
-        <v>780.2526667117767</v>
+        <v>765.5400492516721</v>
       </c>
       <c r="D27" t="n">
-        <v>641.4140297019887</v>
+        <v>626.7014122418842</v>
       </c>
       <c r="E27" t="n">
-        <v>494.3860197588599</v>
+        <v>479.6734022987554</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6922217087342</v>
+        <v>344.9796042486298</v>
       </c>
       <c r="G27" t="n">
         <v>230.9637217320188</v>
@@ -6300,7 +6300,7 @@
         <v>131.0258642787168</v>
       </c>
       <c r="I27" t="n">
-        <v>62.64357896877782</v>
+        <v>62.64357896877781</v>
       </c>
       <c r="J27" t="n">
         <v>122.897725501884</v>
@@ -6348,7 +6348,7 @@
         <v>1279.184491142399</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.375782252083</v>
+        <v>1086.663164791978</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>251.6143455960697</v>
+        <v>251.6143455960695</v>
       </c>
       <c r="C28" t="n">
-        <v>212.0986908500881</v>
+        <v>212.0986908500879</v>
       </c>
       <c r="D28" t="n">
-        <v>189.1271124701889</v>
+        <v>189.1271124701888</v>
       </c>
       <c r="E28" t="n">
-        <v>167.2184130238459</v>
+        <v>167.2184130238458</v>
       </c>
       <c r="F28" t="n">
-        <v>144.8380728419611</v>
+        <v>144.838072841961</v>
       </c>
       <c r="G28" t="n">
         <v>106.0186390021492</v>
       </c>
       <c r="H28" t="n">
-        <v>76.74630857376118</v>
+        <v>76.74630857376114</v>
       </c>
       <c r="I28" t="n">
-        <v>62.64357896877782</v>
+        <v>62.64357896877781</v>
       </c>
       <c r="J28" t="n">
         <v>131.2927979587791</v>
@@ -6388,46 +6388,46 @@
         <v>164.8969857034225</v>
       </c>
       <c r="L28" t="n">
-        <v>265.504065103682</v>
+        <v>367.6650129781457</v>
       </c>
       <c r="M28" t="n">
-        <v>395.9176488312964</v>
+        <v>613.169837633718</v>
       </c>
       <c r="N28" t="n">
-        <v>641.8513091088674</v>
+        <v>731.5921793833184</v>
       </c>
       <c r="O28" t="n">
-        <v>867.8262741325277</v>
+        <v>957.5671444069786</v>
       </c>
       <c r="P28" t="n">
-        <v>1058.306076388636</v>
+        <v>1148.046946663087</v>
       </c>
       <c r="Q28" t="n">
         <v>1148.046946663087</v>
       </c>
       <c r="R28" t="n">
-        <v>1128.625480069804</v>
+        <v>1128.625480069803</v>
       </c>
       <c r="S28" t="n">
         <v>1045.016032265829</v>
       </c>
       <c r="T28" t="n">
-        <v>941.9373938738463</v>
+        <v>941.9373938738461</v>
       </c>
       <c r="U28" t="n">
-        <v>784.8474691552843</v>
+        <v>784.8474691552841</v>
       </c>
       <c r="V28" t="n">
-        <v>654.212479506045</v>
+        <v>654.2124795060448</v>
       </c>
       <c r="W28" t="n">
-        <v>498.1563928157823</v>
+        <v>498.1563928157821</v>
       </c>
       <c r="X28" t="n">
-        <v>397.0042435034961</v>
+        <v>397.004243503496</v>
       </c>
       <c r="Y28" t="n">
-        <v>305.0693994881113</v>
+        <v>305.0693994881112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1675.803486073395</v>
+        <v>1656.082112875532</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.480754071743</v>
+        <v>1398.75938087388</v>
       </c>
       <c r="D29" t="n">
-        <v>1170.267815964507</v>
+        <v>1150.546442766643</v>
       </c>
       <c r="E29" t="n">
-        <v>900.0931227361536</v>
+        <v>880.3717495382905</v>
       </c>
       <c r="F29" t="n">
-        <v>610.5529587118635</v>
+        <v>590.8315855140011</v>
       </c>
       <c r="G29" t="n">
-        <v>319.0599988315919</v>
+        <v>319.059998831592</v>
       </c>
       <c r="H29" t="n">
         <v>110.8497510944415</v>
       </c>
       <c r="I29" t="n">
-        <v>62.64357896877782</v>
+        <v>62.64357896877781</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7733904764798</v>
+        <v>256.7733904764796</v>
       </c>
       <c r="K29" t="n">
-        <v>619.0450297561588</v>
+        <v>619.0450297561583</v>
       </c>
       <c r="L29" t="n">
-        <v>1089.061670076001</v>
+        <v>1089.061670076</v>
       </c>
       <c r="M29" t="n">
-        <v>1604.432103563985</v>
+        <v>1604.432103563984</v>
       </c>
       <c r="N29" t="n">
-        <v>2104.894729486597</v>
+        <v>2104.894729486596</v>
       </c>
       <c r="O29" t="n">
-        <v>2532.030581194327</v>
+        <v>2532.030581194326</v>
       </c>
       <c r="P29" t="n">
-        <v>2882.318744885276</v>
+        <v>2882.318744885275</v>
       </c>
       <c r="Q29" t="n">
         <v>3098.882265806709</v>
@@ -6488,25 +6488,25 @@
         <v>3132.178948438891</v>
       </c>
       <c r="S29" t="n">
-        <v>3069.560999734785</v>
+        <v>3132.178948438891</v>
       </c>
       <c r="T29" t="n">
-        <v>3052.152402033305</v>
+        <v>3032.431028835442</v>
       </c>
       <c r="U29" t="n">
-        <v>2921.878092412839</v>
+        <v>2902.156719214976</v>
       </c>
       <c r="V29" t="n">
-        <v>2709.509844974321</v>
+        <v>2689.788471776458</v>
       </c>
       <c r="W29" t="n">
-        <v>2471.585941497462</v>
+        <v>2451.864568299599</v>
       </c>
       <c r="X29" t="n">
-        <v>2214.166827684496</v>
+        <v>2194.445454486633</v>
       </c>
       <c r="Y29" t="n">
-        <v>1945.235998925874</v>
+        <v>1925.514625728011</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>131.0258642787168</v>
       </c>
       <c r="I30" t="n">
-        <v>62.64357896877782</v>
+        <v>62.64357896877781</v>
       </c>
       <c r="J30" t="n">
         <v>122.897725501884</v>
@@ -6576,7 +6576,7 @@
         <v>1946.812970582961</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.417348031295</v>
+        <v>1733.129965491399</v>
       </c>
       <c r="W30" t="n">
         <v>1491.814096724709</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.0393624836542</v>
+        <v>290.0393624836546</v>
       </c>
       <c r="C31" t="n">
-        <v>245.0344196108748</v>
+        <v>245.0344196108752</v>
       </c>
       <c r="D31" t="n">
-        <v>216.5735531041779</v>
+        <v>216.5735531041782</v>
       </c>
       <c r="E31" t="n">
-        <v>189.1755655310371</v>
+        <v>189.1755655310373</v>
       </c>
       <c r="F31" t="n">
-        <v>161.3059372223545</v>
+        <v>161.3059372223547</v>
       </c>
       <c r="G31" t="n">
-        <v>116.9972152557448</v>
+        <v>116.9972152557449</v>
       </c>
       <c r="H31" t="n">
-        <v>82.23559670055897</v>
+        <v>82.23559670055901</v>
       </c>
       <c r="I31" t="n">
-        <v>62.64357896877782</v>
+        <v>62.64357896877781</v>
       </c>
       <c r="J31" t="n">
-        <v>125.9127466657046</v>
+        <v>125.9127466657045</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6482016452441</v>
+        <v>281.6482016452439</v>
       </c>
       <c r="L31" t="n">
-        <v>504.3865482803996</v>
+        <v>504.3865482803994</v>
       </c>
       <c r="M31" t="n">
-        <v>744.5113216428974</v>
+        <v>627.3977312672563</v>
       </c>
       <c r="N31" t="n">
-        <v>862.9336633924978</v>
+        <v>867.9513402517526</v>
       </c>
       <c r="O31" t="n">
-        <v>966.4149867474415</v>
+        <v>966.4149867474423</v>
       </c>
       <c r="P31" t="n">
-        <v>1151.514737710475</v>
+        <v>1151.514737710476</v>
       </c>
       <c r="Q31" t="n">
-        <v>1235.875556691852</v>
+        <v>1235.875556691853</v>
       </c>
       <c r="R31" t="n">
         <v>1210.964801971771</v>
       </c>
       <c r="S31" t="n">
-        <v>1121.866066040998</v>
+        <v>1121.866066040999</v>
       </c>
       <c r="T31" t="n">
         <v>1013.298139522218</v>
       </c>
       <c r="U31" t="n">
-        <v>850.7189266768578</v>
+        <v>850.7189266768585</v>
       </c>
       <c r="V31" t="n">
-        <v>714.5946489008207</v>
+        <v>714.5946489008214</v>
       </c>
       <c r="W31" t="n">
-        <v>553.0492740837602</v>
+        <v>553.0492740837608</v>
       </c>
       <c r="X31" t="n">
-        <v>446.4078366446763</v>
+        <v>446.4078366446768</v>
       </c>
       <c r="Y31" t="n">
-        <v>348.9837045024937</v>
+        <v>348.9837045024942</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732584</v>
+        <v>1578.511661732583</v>
       </c>
       <c r="C32" t="n">
         <v>1334.735406587361</v>
@@ -6683,46 +6683,46 @@
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646302</v>
+        <v>843.4407289646304</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.4470417967702</v>
       </c>
       <c r="G32" t="n">
         <v>289.5005587729277</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220667</v>
+        <v>94.83678789220662</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297226</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J32" t="n">
-        <v>209.2156112513617</v>
+        <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>584.7641524980268</v>
+        <v>643.1323473443256</v>
       </c>
       <c r="L32" t="n">
-        <v>1068.057694784855</v>
+        <v>991.0177204292718</v>
       </c>
       <c r="M32" t="n">
-        <v>1596.705030239826</v>
+        <v>1519.665055884242</v>
       </c>
       <c r="N32" t="n">
-        <v>2110.444558129424</v>
+        <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2550.85731180414</v>
+        <v>2415.449142602258</v>
       </c>
       <c r="P32" t="n">
-        <v>2779.014208260194</v>
+        <v>2779.014208260193</v>
       </c>
       <c r="Q32" t="n">
-        <v>3008.854631148613</v>
+        <v>3008.854631148612</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148613</v>
+        <v>3008.854631148612</v>
       </c>
       <c r="S32" t="n">
         <v>2959.783159300936</v>
@@ -6731,16 +6731,16 @@
         <v>2873.581716553917</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.85388378988</v>
+        <v>2756.853883789881</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587363</v>
+        <v>2333.654686587362</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630826</v>
+        <v>2089.782049630825</v>
       </c>
       <c r="Y32" t="n">
         <v>1834.397697728633</v>
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297226</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6813,10 +6813,10 @@
         <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
         <v>1291.430622256698</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428438</v>
+        <v>192.7475381428434</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264937</v>
+        <v>161.2890721264934</v>
       </c>
       <c r="D34" t="n">
-        <v>146.374682476226</v>
+        <v>146.3746824762258</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595145</v>
+        <v>132.5231717595142</v>
       </c>
       <c r="F34" t="n">
-        <v>118.2000203072612</v>
+        <v>118.200020307261</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708075</v>
+        <v>87.43777519708063</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832416</v>
+        <v>66.22263349832409</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297226</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868853</v>
+        <v>60.17709262297225</v>
       </c>
       <c r="K34" t="n">
-        <v>305.7355192334111</v>
+        <v>93.78128036761566</v>
       </c>
       <c r="L34" t="n">
-        <v>541.750767835553</v>
+        <v>194.3883597678752</v>
       </c>
       <c r="M34" t="n">
-        <v>659.7442739631547</v>
+        <v>312.3818658954769</v>
       </c>
       <c r="N34" t="n">
-        <v>778.1666157127551</v>
+        <v>486.7792510672223</v>
       </c>
       <c r="O34" t="n">
-        <v>876.6302622084447</v>
+        <v>720.6510667647945</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779526</v>
+        <v>1005.301162779525</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051835</v>
+        <v>929.7489037051827</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428318</v>
+        <v>834.7274540428311</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539013</v>
+        <v>685.6947180539006</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342934</v>
+        <v>563.1169171342929</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736621</v>
+        <v>415.1180191736615</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910074</v>
+        <v>322.0230585910069</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052541</v>
+        <v>238.1454033052536</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556528</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
         <v>1268.831904508741</v>
@@ -6962,13 +6962,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
         <v>348.1493171020421</v>
@@ -7011,7 +7011,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
@@ -7059,7 +7059,7 @@
         <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287319</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208575</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>74.18506434652159</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>565.2975844169162</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
         <v>527.7073651707066</v>
@@ -7181,13 +7181,13 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
         <v>2384.968274529432</v>
@@ -7236,7 +7236,7 @@
         <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
         <v>348.1493171020421</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>59.16357979572506</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>59.16357979572506</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>74.18506434652159</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>73.07245222190386</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.060512746685</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N41" t="n">
-        <v>1811.631037687489</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O41" t="n">
-        <v>2116.635622160323</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P41" t="n">
-        <v>2344.792518616376</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E42" t="n">
         <v>482.8431151521678</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7533,7 +7533,7 @@
         <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="43">
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5844139977867</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5844139977867</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="G43" t="n">
-        <v>65.47180187316897</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="H43" t="n">
-        <v>65.47180187316897</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="I43" t="n">
-        <v>65.47180187316897</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="J43" t="n">
-        <v>78.28534634413701</v>
+        <v>65.47180187316899</v>
       </c>
       <c r="K43" t="n">
-        <v>111.8895340887804</v>
+        <v>99.0759896178124</v>
       </c>
       <c r="L43" t="n">
-        <v>212.4966134890399</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M43" t="n">
-        <v>330.4901196166417</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N43" t="n">
-        <v>448.912461366242</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>547.3761078619317</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>610.3445915900695</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>610.3445915900695</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
         <v>628.266068145054</v>
@@ -7600,19 +7600,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6803544420719</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
@@ -7658,13 +7658,13 @@
         <v>1104.364130017708</v>
       </c>
       <c r="N44" t="n">
-        <v>1647.163263196456</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.16784766929</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2296.133689926718</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7682,7 +7682,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W44" t="n">
         <v>2028.08193847085</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7755,22 +7755,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>51.10067436208574</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="F46" t="n">
-        <v>66.12215891288227</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="G46" t="n">
-        <v>65.00954678826454</v>
+        <v>65.47180187316897</v>
       </c>
       <c r="H46" t="n">
-        <v>73.07245222190386</v>
+        <v>73.73844678336762</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912145</v>
+        <v>73.73844678336762</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912145</v>
+        <v>73.73844678336762</v>
       </c>
       <c r="K46" t="n">
         <v>129.8110106437649</v>
@@ -7837,19 +7837,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V46" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X46" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>420.8809617999565</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>446.4723846199502</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8061,19 +8061,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>601.1872630101291</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>457.1354801054151</v>
       </c>
       <c r="P3" t="n">
-        <v>234.1609576585135</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>462.288976425053</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>568.5510017355793</v>
+        <v>446.4723846199502</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8292,13 +8292,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8307,10 +8307,10 @@
         <v>601.1872630101291</v>
       </c>
       <c r="O6" t="n">
-        <v>499.6193903204548</v>
+        <v>393.0431477622083</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>448.8511326829348</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9732,7 +9732,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319179</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>299.0889220286996</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>238.4788795645244</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.367532376175931</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>131.1011747121595</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>242.5952992688786</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.8953987468356</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>186.5391182211081</v>
+        <v>287.1956569795822</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5922547757809</v>
+        <v>298.592254775781</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.70563290339661</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.90562774879713</v>
       </c>
       <c r="D13" t="n">
-        <v>60.52699214637548</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>59.47474200215497</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.94166633034128</v>
       </c>
       <c r="G13" t="n">
-        <v>76.21636905168907</v>
+        <v>76.21636905168911</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>51.74683185920888</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.23960078173771</v>
+        <v>57.01238147762619</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>120.5584828762099</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>32.55887603211729</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.9257573694386</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.8006251255063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.6545267831697</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>281.6658437408514</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>100.8572116988861</v>
+        <v>272.6471477853794</v>
       </c>
       <c r="E14" t="n">
-        <v>294.3892853552849</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>233.0444843189945</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64044946362266</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.89377741278599</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>237.1609040233488</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4610035013057</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.27123765786673</v>
+        <v>23.2196580300177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.04034675662506</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.12408763068</v>
       </c>
       <c r="T16" t="n">
-        <v>133.4307475590152</v>
+        <v>134.3985863128087</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>19.52415946588497</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.99176921706471</v>
       </c>
       <c r="T29" t="n">
-        <v>81.5159286829482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798133.1168128985</v>
+        <v>798133.1168128983</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809650.8558295788</v>
+        <v>809650.8558295789</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913362.471085223</v>
+        <v>913362.4710852228</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422193.2332717999</v>
+        <v>422193.2332718</v>
       </c>
       <c r="C2" t="n">
-        <v>422193.2332717998</v>
+        <v>422193.2332718</v>
       </c>
       <c r="D2" t="n">
         <v>422193.2332717999</v>
       </c>
       <c r="E2" t="n">
-        <v>365811.0118725786</v>
+        <v>365811.0118725788</v>
       </c>
       <c r="F2" t="n">
-        <v>371089.9755885561</v>
+        <v>371089.9755885563</v>
       </c>
       <c r="G2" t="n">
+        <v>422193.2332718007</v>
+      </c>
+      <c r="H2" t="n">
         <v>422193.2332718005</v>
       </c>
-      <c r="H2" t="n">
-        <v>422193.2332718004</v>
-      </c>
       <c r="I2" t="n">
-        <v>422193.2332718003</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="J2" t="n">
         <v>422193.2332718</v>
       </c>
       <c r="K2" t="n">
-        <v>418624.4659140604</v>
+        <v>418624.4659140605</v>
       </c>
       <c r="L2" t="n">
-        <v>422193.2332717997</v>
+        <v>422193.2332717996</v>
       </c>
       <c r="M2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718005</v>
       </c>
       <c r="N2" t="n">
-        <v>422193.2332718004</v>
+        <v>422193.2332718006</v>
       </c>
       <c r="O2" t="n">
-        <v>422193.2332718006</v>
+        <v>422193.2332718005</v>
       </c>
       <c r="P2" t="n">
         <v>422193.2332718006</v>
@@ -26375,7 +26375,7 @@
         <v>106686.5808190487</v>
       </c>
       <c r="F3" t="n">
-        <v>4347.516196423862</v>
+        <v>4347.516196423931</v>
       </c>
       <c r="G3" t="n">
         <v>55744.39024223013</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210074.8534117974</v>
+        <v>210074.8534117973</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66473.19991252209</v>
+        <v>66473.19991252221</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456565</v>
+        <v>23482.5093245656</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26439,13 +26439,13 @@
         <v>175623.1205402357</v>
       </c>
       <c r="J4" t="n">
-        <v>176365.9509897421</v>
+        <v>176365.9509897422</v>
       </c>
       <c r="K4" t="n">
         <v>172689.8105149079</v>
       </c>
       <c r="L4" t="n">
-        <v>176200.8165314006</v>
+        <v>176200.8165314007</v>
       </c>
       <c r="M4" t="n">
         <v>175623.1205402357</v>
@@ -26479,7 +26479,7 @@
         <v>46487.98378965737</v>
       </c>
       <c r="F5" t="n">
-        <v>46944.84796355381</v>
+        <v>46944.84796355382</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26488,19 +26488,19 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264635</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
         <v>58437.14934690544</v>
       </c>
       <c r="K5" t="n">
-        <v>57980.285173009</v>
+        <v>57980.28517300898</v>
       </c>
       <c r="L5" t="n">
         <v>57233.20592541149</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1292.277800860553</v>
+        <v>-1292.277800860436</v>
       </c>
       <c r="C6" t="n">
-        <v>164416.7031208492</v>
+        <v>164416.7031208494</v>
       </c>
       <c r="D6" t="n">
         <v>161274.3811316255</v>
       </c>
       <c r="E6" t="n">
-        <v>95344.28038979977</v>
+        <v>95087.99756525799</v>
       </c>
       <c r="F6" t="n">
-        <v>197013.7396779372</v>
+        <v>196781.4521430135</v>
       </c>
       <c r="G6" t="n">
-        <v>138022.9055966883</v>
+        <v>138022.9055966885</v>
       </c>
       <c r="H6" t="n">
-        <v>193767.2958389184</v>
+        <v>193767.2958389185</v>
       </c>
       <c r="I6" t="n">
-        <v>193767.2958389183</v>
+        <v>193767.2958389186</v>
       </c>
       <c r="J6" t="n">
-        <v>-22684.72047664496</v>
+        <v>-22684.7204766449</v>
       </c>
       <c r="K6" t="n">
-        <v>187954.3702261435</v>
+        <v>187938.1485563357</v>
       </c>
       <c r="L6" t="n">
-        <v>122286.0109024655</v>
+        <v>122286.0109024652</v>
       </c>
       <c r="M6" t="n">
-        <v>170284.7865143527</v>
+        <v>170284.7865143529</v>
       </c>
       <c r="N6" t="n">
-        <v>193767.2958389184</v>
+        <v>193767.2958389185</v>
       </c>
       <c r="O6" t="n">
-        <v>150819.7529620408</v>
+        <v>150819.7529620407</v>
       </c>
       <c r="P6" t="n">
         <v>193767.2958389186</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F2" t="n">
         <v>96.44857733966928</v>
@@ -26707,7 +26707,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="K2" t="n">
         <v>123.3649163988849</v>
@@ -26799,37 +26799,37 @@
         <v>638.7584295260717</v>
       </c>
       <c r="F4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="G4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="I4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="I4" t="n">
-        <v>638.7584295260715</v>
-      </c>
       <c r="J4" t="n">
-        <v>783.0447371097227</v>
+        <v>783.0447371097226</v>
       </c>
       <c r="K4" t="n">
-        <v>783.0447371097227</v>
+        <v>783.0447371097226</v>
       </c>
       <c r="L4" t="n">
-        <v>752.2136577871532</v>
+        <v>752.2136577871531</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F2" t="n">
-        <v>5.434395245529828</v>
+        <v>5.434395245529913</v>
       </c>
       <c r="G2" t="n">
         <v>69.68048780278765</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.68442859609721</v>
+        <v>53.68442859609719</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.09149989065261</v>
+        <v>83.09149989065276</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570706</v>
+        <v>29.353136655707</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609721</v>
+        <v>53.68442859609719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260721</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K2" t="n">
-        <v>5.434395245529828</v>
+        <v>5.434395245529913</v>
       </c>
       <c r="L2" t="n">
         <v>69.68048780278765</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609721</v>
+        <v>53.68442859609719</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>120.8882312916063</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
+        <v>324.0271377173015</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27436,16 +27436,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>177.255622627071</v>
       </c>
       <c r="W3" t="n">
-        <v>132.0902829523141</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>42.71577926664517</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27546,7 +27546,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>50.27304705213072</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27555,7 +27555,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27597,13 +27597,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>314.3970854505982</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>191.7059842683746</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>7.519200160091799</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>69.80510750746589</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>94.16710381075339</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.2305511458285</v>
@@ -27792,10 +27792,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>92.5047225169356</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27853,19 +27853,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>176.0082707287368</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>328.2338661620635</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27935,7 +27935,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>67.62975117849828</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>141.1793996525907</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>132.2210650560332</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28026,7 +28026,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>70.09963317225434</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28074,7 +28074,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="J11" t="n">
-        <v>91.01418209413941</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>83.89785658602293</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="L11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="M11" t="n">
-        <v>91.01418209413941</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="O11" t="n">
-        <v>91.01418209413941</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>83.89785658602369</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="R11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01418209413941</v>
+        <v>91.01418209413937</v>
       </c>
     </row>
     <row r="14">
@@ -28348,28 +28348,28 @@
         <v>96.44857733966928</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>96.44857733966928</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>56.72588035837367</v>
       </c>
       <c r="M14" t="n">
         <v>96.44857733966928</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>96.44857733966928</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>56.72588035837384</v>
+      </c>
+      <c r="Q14" t="n">
         <v>96.44857733966928</v>
-      </c>
-      <c r="P14" t="n">
-        <v>96.44857733966928</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>96.44857733966928</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28585,19 +28585,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>116.978733132701</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>40.58157162934947</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28606,10 +28606,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28728,7 +28728,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -28737,13 +28737,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.592827839160989</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S19" t="n">
         <v>166.1290651424569</v>
@@ -28822,19 +28822,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
+        <v>116.9787331327008</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
-        <v>116.9787331327007</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>166.1290651424569</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14.56549128550378</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29059,31 +29059,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>40.58157162934856</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>14.56549128550463</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N25" t="n">
-        <v>23.31756564084431</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="C26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="D26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="E26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="F26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="G26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="H26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="I26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="J26" t="n">
-        <v>128.7993116444147</v>
+        <v>79.88975443464605</v>
       </c>
       <c r="K26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="L26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="M26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="N26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="O26" t="n">
-        <v>79.88975443464642</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="P26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="R26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="S26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="T26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="U26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="V26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="W26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="X26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
     </row>
     <row r="27">
@@ -29366,7 +29366,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.56549128550367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="C28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="D28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="E28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="F28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="G28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="H28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="I28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="J28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>103.1928766408724</v>
       </c>
       <c r="M28" t="n">
-        <v>12.54553292930575</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7993116444147</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="P28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.7993116444147</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="S28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="T28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="V28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="W28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444148</v>
       </c>
     </row>
     <row r="29">
@@ -29648,10 +29648,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W30" t="n">
-        <v>14.5654912855035</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29700,13 +29700,13 @@
         <v>123.3649163988849</v>
       </c>
       <c r="M31" t="n">
+        <v>5.068360463894066</v>
+      </c>
+      <c r="N31" t="n">
         <v>123.3649163988849</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
       <c r="O31" t="n">
-        <v>5.068360463892944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>123.3649163988849</v>
@@ -29770,13 +29770,13 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>77.81815591473108</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
@@ -29785,10 +29785,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
+        <v>77.81815591473077</v>
+      </c>
+      <c r="P32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
@@ -29885,13 +29885,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
+        <v>59.456666199969</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>56.54044790115664</v>
+      </c>
+      <c r="O34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="K34" t="n">
+      <c r="P34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="L34" t="n">
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>77.84514616827879</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30010,10 +30010,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>116.9787331327012</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R35" t="n">
         <v>89.73190363910518</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.56549128550347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30147,13 +30147,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>159.6855231633829</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30162,7 +30162,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30244,25 +30244,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>40.58157162934924</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>40.58157162934896</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30308,10 +30308,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F39" t="n">
-        <v>14.56549128550374</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30384,13 +30384,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>159.6855231633829</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.68561682995301</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30484,25 +30484,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>40.58157162934941</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30545,7 +30545,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
     </row>
     <row r="43">
@@ -30639,13 +30639,13 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>72.39964041306803</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.04547578379038</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30730,16 +30730,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
-        <v>116.9787331327013</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30861,25 +30861,25 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>165.9232676913869</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.69532940985235</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -32093,7 +32093,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>229.3207496368418</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>260.07427044772</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34781,19 +34781,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>494.4721219424208</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>341.276031494304</v>
       </c>
       <c r="P3" t="n">
-        <v>125.3067516343702</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>275.1326619278939</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>382.1528875633492</v>
+        <v>260.07427044772</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35027,10 +35027,10 @@
         <v>494.4721219424208</v>
       </c>
       <c r="O6" t="n">
-        <v>383.7599417093437</v>
+        <v>277.1836991510972</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>333.3672301212949</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>163.7399843899027</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>326.4638889544904</v>
+        <v>333.5802144626068</v>
       </c>
       <c r="L11" t="n">
-        <v>442.4135488466104</v>
+        <v>442.4135488466103</v>
       </c>
       <c r="M11" t="n">
-        <v>488.2254611376626</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>473.1670696574886</v>
       </c>
       <c r="O11" t="n">
-        <v>399.0996209555879</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>314.3593681577946</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>186.4002969290252</v>
       </c>
       <c r="R11" t="n">
-        <v>1.282278455034231</v>
+        <v>1.282278455034188</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.55751589417041</v>
+        <v>31.55751589417037</v>
       </c>
       <c r="K13" t="n">
         <v>124.9578060786277</v>
       </c>
       <c r="L13" t="n">
-        <v>192.6374946196541</v>
+        <v>192.637494619654</v>
       </c>
       <c r="M13" t="n">
         <v>210.1995418189896</v>
       </c>
       <c r="N13" t="n">
-        <v>210.6327091139378</v>
+        <v>210.6327091139377</v>
       </c>
       <c r="O13" t="n">
         <v>190.4724108776643</v>
@@ -35586,7 +35586,7 @@
         <v>154.6187111124604</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.86221416129156</v>
+        <v>52.86221416129152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.1743796354326</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>408.1252471108446</v>
+        <v>447.8479440921402</v>
       </c>
       <c r="M14" t="n">
         <v>493.6598563831924</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>478.6014649030185</v>
       </c>
       <c r="O14" t="n">
-        <v>404.5340162011177</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>326.9100889114402</v>
+        <v>287.1873919301448</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>191.8346921745551</v>
       </c>
       <c r="R14" t="n">
         <v>6.716673700564101</v>
@@ -35741,7 +35741,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.7045354284643</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
         <v>563.3403441859801</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926987</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35902,10 +35902,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36024,7 +36024,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -36033,13 +36033,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6185270197983</v>
+        <v>124.2113548589593</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>238.8548674382202</v>
+        <v>189.7045354284641</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36127,10 +36127,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N20" t="n">
-        <v>499.1316206960499</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
         <v>474.2145040039054</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K22" t="n">
         <v>33.9436239844883</v>
@@ -36291,7 +36291,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284642</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>422.7344591926978</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P23" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.1473932077736</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36510,7 +36510,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N25" t="n">
-        <v>142.9360926606427</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
         <v>99.45822878352493</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.525113940178</v>
+        <v>152.6155567304093</v>
       </c>
       <c r="K26" t="n">
-        <v>371.3653440128821</v>
+        <v>371.3653440128822</v>
       </c>
       <c r="L26" t="n">
         <v>480.1986783968857</v>
@@ -36607,7 +36607,7 @@
         <v>510.952199207764</v>
       </c>
       <c r="O26" t="n">
-        <v>387.9751932960949</v>
+        <v>436.8847505058632</v>
       </c>
       <c r="P26" t="n">
         <v>359.2608232161857</v>
@@ -36616,7 +36616,7 @@
         <v>224.1854264793006</v>
       </c>
       <c r="R26" t="n">
-        <v>39.06740800530955</v>
+        <v>39.06740800530957</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.34264544444574</v>
+        <v>69.34264544444576</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>101.6233125255146</v>
+        <v>204.816189166387</v>
       </c>
       <c r="M28" t="n">
-        <v>131.730892654156</v>
+        <v>247.984671369265</v>
       </c>
       <c r="N28" t="n">
-        <v>248.4178386642131</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
         <v>228.2575404279397</v>
       </c>
       <c r="P28" t="n">
-        <v>192.4038406627357</v>
+        <v>192.4038406627358</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.64734371156688</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>365.9309487673523</v>
       </c>
       <c r="L29" t="n">
-        <v>474.7642831513559</v>
+        <v>474.7642831513558</v>
       </c>
       <c r="M29" t="n">
-        <v>520.5761954424081</v>
+        <v>520.576195442408</v>
       </c>
       <c r="N29" t="n">
-        <v>505.5178039622342</v>
+        <v>505.5178039622341</v>
       </c>
       <c r="O29" t="n">
-        <v>431.4503552603334</v>
+        <v>431.4503552603333</v>
       </c>
       <c r="P29" t="n">
-        <v>353.8264279706559</v>
+        <v>353.8264279706558</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.7510312337708</v>
+        <v>218.7510312337707</v>
       </c>
       <c r="R29" t="n">
-        <v>33.63301275977973</v>
+        <v>33.63301275977967</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.90825019891592</v>
+        <v>63.90825019891586</v>
       </c>
       <c r="K31" t="n">
         <v>157.3085403833732</v>
       </c>
       <c r="L31" t="n">
-        <v>224.9882289243996</v>
+        <v>224.9882289243995</v>
       </c>
       <c r="M31" t="n">
-        <v>242.5502761237352</v>
+        <v>124.2537201887443</v>
       </c>
       <c r="N31" t="n">
-        <v>119.6185270197983</v>
+        <v>242.9834434186832</v>
       </c>
       <c r="O31" t="n">
-        <v>104.5265892474179</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
         <v>186.9694454172059</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.21294846603706</v>
+        <v>85.21294846603701</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>150.5439582104944</v>
+        <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552173</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392208</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37081,13 +37081,13 @@
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481983</v>
+        <v>385.9035947761792</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>367.2374400585209</v>
       </c>
       <c r="Q32" t="n">
-        <v>232.1620433216357</v>
+        <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678088</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>170.7195524712382</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>238.3992410122645</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>176.158974920955</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>236.2341572702749</v>
       </c>
       <c r="P34" t="n">
-        <v>141.4496751865998</v>
+        <v>200.3804575050709</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
         <v>397.2112790435232</v>
@@ -37324,7 +37324,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3648479675871</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37443,13 +37443,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>8.729674738902236</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>437.7928506728724</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>348.6670104907974</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>8.144348922867996</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>148.3089293554677</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37780,10 +37780,10 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818204</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37795,10 +37795,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>76.39716150335175</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.94297421309903</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6233125255146</v>
+        <v>132.668788309305</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,16 +38026,16 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>499.1316206960502</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
-        <v>347.4402447044723</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38157,25 +38157,25 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.144348922867996</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>56.63895339434065</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
